--- a/src/test/resources/testData/testDataElena.xlsx
+++ b/src/test/resources/testData/testDataElena.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/furkanozturk/git/groupA_mortgage/src/test/resources/testData/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100EF2E8-3BE6-BB41-B5CE-1AF422FBB433}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19080" windowHeight="5775"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24780" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <oleSize ref="A1:G17"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>RealtorEmail</t>
   </si>
@@ -94,7 +99,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -458,25 +463,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="32.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.5" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="30.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.83203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.1640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +501,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -516,7 +521,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -536,7 +541,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -556,7 +561,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -576,19 +581,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>

--- a/src/test/resources/testData/testDataElena.xlsx
+++ b/src/test/resources/testData/testDataElena.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>RealtorEmail</t>
   </si>

--- a/src/test/resources/testData/testDataElena.xlsx
+++ b/src/test/resources/testData/testDataElena.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>RealtorEmail</t>
   </si>
